--- a/256KB.xlsx
+++ b/256KB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Script\Data\256 KB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Encryption algorithms performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7461361F-DC5D-4DCF-8680-37257835C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69347947-5073-4BE2-B192-06EC23C834C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2265" windowWidth="16515" windowHeight="11745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="2505" windowWidth="16515" windowHeight="11745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference" sheetId="2" r:id="rId1"/>
@@ -331,13 +331,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,6 +343,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="6" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -705,7 +705,7 @@
       </c>
     </row>
     <row r="7" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
@@ -937,7 +937,7 @@
   <dimension ref="B3:I26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1001,12 +1001,12 @@
       <c r="H4" s="13">
         <v>256</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1027,10 +1027,10 @@
       <c r="H5" s="13">
         <v>256</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1051,10 +1051,10 @@
       <c r="H6" s="13">
         <v>256</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1075,10 +1075,10 @@
       <c r="H7" s="13">
         <v>256</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1099,10 +1099,10 @@
       <c r="H8" s="13">
         <v>256</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1125,10 +1125,10 @@
       <c r="H9" s="13">
         <v>256</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1149,10 +1149,10 @@
       <c r="H10" s="13">
         <v>256</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1173,34 +1173,34 @@
       <c r="H11" s="13">
         <v>256</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>2.1600000000000001E-2</v>
+        <v>0.16928199999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>1.4444999999999999</v>
+        <v>1.4767999999999999</v>
       </c>
       <c r="F12" s="4">
-        <v>0.92930000000000001</v>
+        <v>7.4574600000000002</v>
       </c>
       <c r="G12" s="4">
-        <v>3.3599999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="H12" s="13">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>100</v>
       </c>
     </row>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2304C67-AF39-4CA2-9387-E590608D6197}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,12 +1352,12 @@
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1366,96 +1366,96 @@
       <c r="D6" s="1">
         <v>256</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>876576</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <f>E6-3*D6*1024</f>
         <v>90144</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>256</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>876000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <f t="shared" ref="F7:F13" si="0">E7-3*D7*1024</f>
         <v>89568</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>256</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>860224</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>73792</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>256</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>875392</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>88960</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>256</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>875392</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>88960</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>256</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>869904</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>83472</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1464,44 +1464,43 @@
       <c r="D12" s="1">
         <v>256</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>869536</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>83104</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>256</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>875408</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>88976</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>32</v>
-      </c>
-      <c r="E14" s="22">
-        <v>196232</v>
-      </c>
-      <c r="F14" s="22">
-        <f>E14-D14*1024</f>
-        <v>163464</v>
+        <v>256</v>
+      </c>
+      <c r="E14" s="20">
+        <v>848560</v>
+      </c>
+      <c r="F14" s="20">
+        <v>848560</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1508,7 @@
     <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="20"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1524,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914C15AA-F971-444B-844C-BA305FDD3A29}">
   <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1552,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1565,10 +1564,10 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1578,10 +1577,10 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,10 +1590,10 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1604,10 +1603,10 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1617,10 +1616,10 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1632,10 +1631,10 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1645,10 +1644,10 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1658,15 +1657,15 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
-        <v>0.85982800000000004</v>
+      <c r="C13">
+        <v>2.2455576000000002</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
